--- a/biology/Botanique/Colocasia/Colocasia.xlsx
+++ b/biology/Botanique/Colocasia/Colocasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colocasia est un genre de plantes herbacées aux grandes feuilles de la famille des Araceae qui sont originaires des régions tropicales. Ses feuilles sont dites sagittées et elles sont cireuses et hydrophobes : les gouttes de pluie s'écoulent rapidement à leur surface[2]. Parmi les Colocasia une espèce, Colocasia esculenta, est cultivée pour son tubercule. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colocasia est un genre de plantes herbacées aux grandes feuilles de la famille des Araceae qui sont originaires des régions tropicales. Ses feuilles sont dites sagittées et elles sont cireuses et hydrophobes : les gouttes de pluie s'écoulent rapidement à leur surface. Parmi les Colocasia une espèce, Colocasia esculenta, est cultivée pour son tubercule. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Colocasia antiquorum Schott
 Colocasia affinis Schott
